--- a/apifile/EventController.xlsx
+++ b/apifile/EventController.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5EB4BC-6128-4D3A-9933-CE6CC8EF94EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2216037F-08A5-4440-98D4-2749E7BE17E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/apifile/EventController.xlsx
+++ b/apifile/EventController.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2216037F-08A5-4440-98D4-2749E7BE17E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06C99E6-226E-4C04-AE2C-477A3FCEC3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/daily/statistics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,27 +71,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id=734806326002135040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>事件详情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/eventType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>保存型号事件类型关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/get/coordinate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -105,10 +85,6 @@
   </si>
   <si>
     <t>获取最近的操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/get/operation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -122,18 +98,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>事件地图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -142,26 +110,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/progress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>事件处理进度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/statistics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>事件统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/event/type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>事件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/daily/statistics</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/detail</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/eventType</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/get/coordinate</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/get/operation</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/list</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/map</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/progress</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/statistics</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/event/type</t>
+  </si>
+  <si>
+    <t>id=787794729601630208</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +527,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,27 +567,27 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>200</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -606,18 +596,18 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -626,15 +616,15 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -643,15 +633,15 @@
         <v>200</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -660,18 +650,18 @@
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -680,15 +670,15 @@
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -697,15 +687,15 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -714,18 +704,18 @@
         <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -734,7 +724,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -742,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -751,22 +741,22 @@
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{17EEAC32-9388-4353-8AE7-D20B9FE40B69}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{3076B1A0-F367-4CA8-837D-75BF0A070FB3}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{C92081E2-F2B9-4541-8ADC-AC96468117DC}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{F5FAB63A-1813-416A-B1E4-611B3E862818}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{DE9060BE-4346-418C-BC50-2009B6EE9F49}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{91973E1D-C838-40A8-AAEA-828DB41C2F7C}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{838C3D47-5A3F-4B48-99DC-98513D22446A}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{224BE45E-D27D-42FE-8F64-248D69134BDC}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{F69EE7B5-7F39-4478-971F-7B3172430774}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{3AE21A00-8324-489D-B4B3-D54024998137}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://island.dev.iot-cas.com:8081/island/event/daily/statistics" xr:uid="{17EEAC32-9388-4353-8AE7-D20B9FE40B69}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://island.dev.iot-cas.com:8081/island/event/detail" xr:uid="{3076B1A0-F367-4CA8-837D-75BF0A070FB3}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://island.dev.iot-cas.com:8081/island/event/eventType" xr:uid="{C92081E2-F2B9-4541-8ADC-AC96468117DC}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://island.dev.iot-cas.com:8081/island/event/get/coordinate" xr:uid="{F5FAB63A-1813-416A-B1E4-611B3E862818}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://island.dev.iot-cas.com:8081/island/event/get/operation" xr:uid="{DE9060BE-4346-418C-BC50-2009B6EE9F49}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://island.dev.iot-cas.com:8081/island/event/list" xr:uid="{91973E1D-C838-40A8-AAEA-828DB41C2F7C}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://island.dev.iot-cas.com:8081/island/event/map" xr:uid="{838C3D47-5A3F-4B48-99DC-98513D22446A}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://island.dev.iot-cas.com:8081/island/event/progress" xr:uid="{224BE45E-D27D-42FE-8F64-248D69134BDC}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://island.dev.iot-cas.com:8081/island/event/statistics" xr:uid="{F69EE7B5-7F39-4478-971F-7B3172430774}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://island.dev.iot-cas.com:8081/island/event/type" xr:uid="{3AE21A00-8324-489D-B4B3-D54024998137}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
